--- a/src/models/baselines/LR/results/synthetic/topology/tv2/metrics.xlsx
+++ b/src/models/baselines/LR/results/synthetic/topology/tv2/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6541934496479952</v>
+        <v>0.8813131313131314</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7626262626262627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7626262626262628</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6745485154576064</v>
+        <v>0.9054560759106214</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6344123048668503</v>
+        <v>0.9212197734925008</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7106672788490971</v>
+        <v>0.9292164064891337</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.7929292929292929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.7929292929292929</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6866008570554024</v>
+        <v>0.9187327823691461</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7525252525252525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7525252525252525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6131389654116927</v>
+        <v>0.9035812672176308</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.494949494949495</v>
+        <v>0.7828282828282829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.494949494949495</v>
+        <v>0.7828282828282829</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6887817569635751</v>
+        <v>0.9171640648913376</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7929292929292929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7929292929292929</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6680058157330885</v>
+        <v>0.9135674931129477</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6507116620752984</v>
+        <v>0.9185032139577595</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5976430976430976</v>
+        <v>0.8964263850627487</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4641414141414141</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4641414141414141</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6578703703703703</v>
+        <v>0.9105180593816957</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03542961190922848</v>
+        <v>0.0284705968439188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03542961190922848</v>
+        <v>0.02847059684391879</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0352650703242969</v>
+        <v>0.01404007574737978</v>
       </c>
     </row>
   </sheetData>
